--- a/assessment/antwoordblad-assessment-praktijk.xlsx
+++ b/assessment/antwoordblad-assessment-praktijk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmnkr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\educom-data-science\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4407B32E-1994-4440-8191-671FA1884125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0664855B-5E7D-49B8-88C0-7A521CABA870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="3588" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antwoordblad Assessm. Praktijk" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
   <si>
     <t>Vraag</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>Callahan</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Peacock</t>
   </si>
 </sst>
 </file>
@@ -114,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -234,6 +243,17 @@
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -245,7 +265,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -284,6 +304,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1443,13 +1469,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1461,7 +1487,7 @@
     <col min="10" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+    <row r="1" spans="1:10" ht="27.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1473,7 +1499,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+    <row r="2" spans="1:10" ht="20.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1512,8 +1538,11 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1526,8 +1555,11 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1540,8 +1572,11 @@
       <c r="H5" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1554,8 +1589,11 @@
       <c r="H6" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I6" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1568,8 +1606,11 @@
       <c r="H7" s="9">
         <v>168</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I7" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1582,8 +1623,11 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I8" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1596,8 +1640,11 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I9" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1610,8 +1657,11 @@
       <c r="H10" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I10" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1624,8 +1674,11 @@
       <c r="H11" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I11" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1638,8 +1691,11 @@
       <c r="H12" s="9">
         <v>13.86</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I12" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1652,8 +1708,11 @@
       <c r="H13" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I13" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1666,8 +1725,14 @@
       <c r="H14" s="9">
         <v>129</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1680,8 +1745,11 @@
       <c r="H15" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I15" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -1694,8 +1762,11 @@
       <c r="H16" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I16" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1708,8 +1779,11 @@
       <c r="H17" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I17" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1724,8 +1798,11 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I18" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1738,8 +1815,11 @@
       <c r="H19" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I19" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1752,8 +1832,11 @@
       <c r="H20" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I20" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -1766,8 +1849,11 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I21" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1780,8 +1866,11 @@
       <c r="H22" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I22" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -1794,8 +1883,11 @@
       <c r="H23" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I23" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -1808,8 +1900,14 @@
       <c r="H24" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I24" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -1828,8 +1926,11 @@
         <v>3</v>
       </c>
       <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I25" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -1846,8 +1947,11 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" ht="19.899999999999999" customHeight="1">
+      <c r="I26" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -1864,6 +1968,9 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
+      <c r="I27" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
